--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\Documents\ETSU\Spring 2024\Software Engineering 1\End of Semester Project\East TN Mental Health Resources\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF28F94-A7DF-480B-9D54-830AF08B21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C0A911-B763-4AE8-98BD-9B0CF491C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C27DF3C-1B76-45D4-B94D-0276AF8B6A9D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>Variable</t>
   </si>
@@ -68,27 +68,9 @@
     <t xml:space="preserve">Last name of a professioanl provider. </t>
   </si>
   <si>
-    <t>Associated_Practice</t>
-  </si>
-  <si>
-    <t>Assoc_Practice_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associated practice or organization of a professional provider. </t>
-  </si>
-  <si>
-    <t>Address of the professional's associated practice.</t>
-  </si>
-  <si>
-    <t>Phone_Number</t>
-  </si>
-  <si>
     <t>Numerical</t>
   </si>
   <si>
-    <t xml:space="preserve">A professionals phone number. </t>
-  </si>
-  <si>
     <t>Accepts_Insurance</t>
   </si>
   <si>
@@ -98,77 +80,218 @@
     <t xml:space="preserve">Boolean value  that indicates whether or not a professional accepts insurance. </t>
   </si>
   <si>
-    <t xml:space="preserve">Medication Mangement/ Therapy </t>
+    <t>Facility_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of an inpatient or outpatient facility. </t>
+  </si>
+  <si>
+    <t>Facility_Phone</t>
+  </si>
+  <si>
+    <t>Facility_Hours</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication / Therapist providers </t>
+  </si>
+  <si>
+    <t>Provider_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unnique ID associated with a specfic provider. </t>
+  </si>
+  <si>
+    <t>Practice_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associated practice of a professional provider. </t>
+  </si>
+  <si>
+    <t>Insurances_Accepted</t>
+  </si>
+  <si>
+    <t>Charcter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Names of insurance companies a specfic provider may accept for payment. </t>
+  </si>
+  <si>
+    <t>Provider_Specialties</t>
+  </si>
+  <si>
+    <t>Specific specialities a provider deals with. Ex. Eating disorder, anxiety, student issue, etc.</t>
+  </si>
+  <si>
+    <t>Medication/ Theraputic Practice</t>
+  </si>
+  <si>
+    <t>Numericlal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique ID for a practice. A practice is defined as a legally recognized entity that has at least one associated provider. </t>
+  </si>
+  <si>
+    <t>Practice_Name</t>
+  </si>
+  <si>
+    <t>Practice_Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hours that a specific practice operates during. </t>
+  </si>
+  <si>
+    <t>Practice_Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The general phone number for a specfic practice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurances_Accepted </t>
+  </si>
+  <si>
+    <t>Practice_Specialties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overall list of names of insurances that all providerss at a practice accept. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overall list of specialities that includes every speciality of every provider associated with a practice. </t>
+  </si>
+  <si>
+    <t>Address_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique ID for a n address.  </t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>The street number and name of an address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The city that an address is associated with. </t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The specfic state that an address is associated with. </t>
+  </si>
+  <si>
+    <t>Postal_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The postal code of an address. </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shortened ID of a country. </t>
   </si>
   <si>
     <t>Facility</t>
   </si>
   <si>
-    <t>Facility_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of an inpatient or outpatient facility. </t>
-  </si>
-  <si>
-    <t>Facility_Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone number of a facility. </t>
-  </si>
-  <si>
-    <t>Facility_Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours of operation of a facility. </t>
-  </si>
-  <si>
-    <t>Walk_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A boolean value indicating whether someone may do a walk in to be admitted to a facility. </t>
-  </si>
-  <si>
-    <t>Facility_Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Address of the facility </t>
-  </si>
-  <si>
-    <t>Facility_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City facility resides in </t>
-  </si>
-  <si>
-    <t>Facility_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State facility resides in. </t>
-  </si>
-  <si>
-    <t>Facility_Postal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal code facility resides in. </t>
-  </si>
-  <si>
-    <t>Facility_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country facility resides in. </t>
+    <t>Facility_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique ID for a specfic address.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique ID for a specfic facility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of a facility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phone assocaited with a specific facility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hours that a specific facility operates during. </t>
+  </si>
+  <si>
+    <t>Walk_In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boolean value for whether or not a facility accepts walk in patients. </t>
+  </si>
+  <si>
+    <t>Facility_Specialties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overall list of specialties that a facility may deal with. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overall list of insurances that a facility may accept. </t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>A provider is defined as a medication management professional or therapist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providers can only belong to one practice, but one practice can be spread across multiple facilities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A facility is defined as a building in which a provider meets with a client/ patient to provide services. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A facility may have inpatient services, outpatient services or both. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A practice is defined as a legally recognized entity that has at least one associated provider. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A practice may have an overall list of all specialties that its associated provider(s) deal with. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specific provider may deal with less specialties than listed in his/her associated practice lists on their websites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specific provider will generally have the same hours of operation, phone number and operate at the same facilities as their practice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specific practice may not share the same phone number or hours of operation as a specific facility. For example, a facility may technically operate 24/7, but a medication provider practice may only operate 8 am-5 pm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A therapist may limit their payment options to only self pay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A specialty is defined as a specific type of concern that a provider advertises to offer treatment for. Examples of specialties may include marriage counseling, student related topics, student athlete related topics, eating disorders, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every provider that practices within a certain facility may not participate in every program associated with the facility. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,10 +314,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,24 +659,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788054-9D2C-4F09-ADE1-266140A2AD92}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -569,128 +698,139 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -701,46 +841,280 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A29:XFD29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmi\Documents\ETSU\Spring 2024\Software Engineering 1\End of Semester Project\East TN Mental Health Resources\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBCE6E7-B4D9-4F9A-A010-AE8664AB442C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246A92D1-5D5C-4E7D-9637-2DE11DB2AD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C27DF3C-1B76-45D4-B94D-0276AF8B6A9D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>Variable</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -670,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788054-9D2C-4F09-ADE1-266140A2AD92}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -790,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -804,7 +801,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -851,7 +848,7 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -893,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1085,7 +1082,7 @@
         <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
